--- a/Data_all/Data_6_all.xlsx
+++ b/Data_all/Data_6_all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>平均エラー数</t>
     <rPh sb="0" eb="2">
@@ -141,6 +141,13 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -178,7 +185,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,11 +230,11 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -532,40 +539,40 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="O9" sqref="O9:Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
@@ -1093,23 +1100,109 @@
         <v>1.0486666666666669</v>
       </c>
     </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4">
+        <f>AVERAGE(B3:B8)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" ref="C9:L9" si="2">AVERAGE(C3:C8)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="4">
+        <f>AVERAGE(O3:O8)</f>
+        <v>0.7944444444444444</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" ref="P9:Y9" si="3">AVERAGE(P3:P8)</f>
+        <v>0.91888888888888898</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="shared" si="3"/>
+        <v>0.73222222222222222</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="3"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="S9" s="4">
+        <f t="shared" si="3"/>
+        <v>0.81333333333333335</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="3"/>
+        <v>0.82888888888888879</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="3"/>
+        <v>1.2555555555555558</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0777777777777777</v>
+      </c>
+      <c r="W9" s="4">
+        <f t="shared" si="3"/>
+        <v>0.91777777777777769</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0866666666666667</v>
+      </c>
+      <c r="Y9" s="4">
+        <f t="shared" si="3"/>
+        <v>0.93755555555555548</v>
+      </c>
+    </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
-        <f>AVERAGE(L3:L8)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="N11" s="7">
-        <f>AVERAGE(Y3:Y8)</f>
-        <v>0.93755555555555548</v>
-      </c>
+      <c r="A11" s="8"/>
+      <c r="N11" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Data_all/Data_6_all.xlsx
+++ b/Data_all/Data_6_all.xlsx
@@ -230,11 +230,11 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -247,6 +247,363 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="226636928"/>
+        <c:axId val="226638464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="226636928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="226638464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="226638464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="226636928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$3:$Y$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78733333333333322</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85066666666666679</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90066666666666662</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0486666666666669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="226683136"/>
+        <c:axId val="227278848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="226683136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="227278848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="227278848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="226683136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>42333</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>486833</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>106891</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>201082</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>115359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>645582</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,40 +896,40 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9:Y9"/>
+      <selection activeCell="Y3" sqref="Y3:Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
@@ -1197,12 +1554,12 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="N10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="N11" s="8"/>
+      <c r="A11" s="7"/>
+      <c r="N11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1212,6 +1569,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Data_all/Data_6_all.xlsx
+++ b/Data_all/Data_6_all.xlsx
@@ -276,8 +276,62 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$M$3:$M$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$M$3:$M$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
           </c:errBars>
           <c:cat>
             <c:numRef>
@@ -343,11 +397,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="226636928"/>
-        <c:axId val="226638464"/>
+        <c:axId val="230855808"/>
+        <c:axId val="230857344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="226636928"/>
+        <c:axId val="230855808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -357,7 +411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226638464"/>
+        <c:crossAx val="230857344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -365,10 +419,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="226638464"/>
+        <c:axId val="230857344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.4"/>
+          <c:max val="0.9"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -378,7 +432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226636928"/>
+        <c:crossAx val="230855808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -422,8 +476,62 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Z$3:$Z$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.20389648789956624</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.13152101648701564</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.13291434167245605</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.1273734666247241</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.17086576927843489</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.24259797562588498</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Z$3:$Z$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.20389648789956624</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.13152101648701564</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.13291434167245605</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.1273734666247241</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.17086576927843489</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.24259797562588498</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
           </c:errBars>
           <c:cat>
             <c:numRef>
@@ -489,11 +597,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="226683136"/>
-        <c:axId val="227278848"/>
+        <c:axId val="231680256"/>
+        <c:axId val="231690240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="226683136"/>
+        <c:axId val="231680256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,7 +611,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227278848"/>
+        <c:crossAx val="231690240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -511,10 +619,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="227278848"/>
+        <c:axId val="231690240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2"/>
+          <c:max val="3"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -524,7 +632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226683136"/>
+        <c:crossAx val="231680256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -893,15 +1001,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3:Y8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -931,7 +1039,7 @@
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1001,7 +1109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1039,6 +1147,10 @@
         <f>AVERAGE(B3:K3)</f>
         <v>3.3333333333333333E-2</v>
       </c>
+      <c r="M3">
+        <f>_xlfn.STDEV.P(B3:K3)</f>
+        <v>0.1</v>
+      </c>
       <c r="N3" s="3">
         <v>0</v>
       </c>
@@ -1076,8 +1188,12 @@
         <f>AVERAGE(O3:X3)</f>
         <v>1.0979999999999999</v>
       </c>
+      <c r="Z3">
+        <f>_xlfn.STDEV.P(O3:X3)</f>
+        <v>0.20389648789956624</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1115,6 +1231,10 @@
         <f t="shared" ref="L4:L6" si="0">AVERAGE(B4:K4)</f>
         <v>0</v>
       </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M8" si="1">_xlfn.STDEV.P(B4:K4)</f>
+        <v>0</v>
+      </c>
       <c r="N4" s="3">
         <v>1</v>
       </c>
@@ -1149,11 +1269,15 @@
         <v>1.0999999999999999</v>
       </c>
       <c r="Y4" s="5">
-        <f t="shared" ref="Y4:Y6" si="1">AVERAGE(O4:X4)</f>
+        <f t="shared" ref="Y4:Y6" si="2">AVERAGE(O4:X4)</f>
         <v>0.93999999999999984</v>
       </c>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z8" si="3">_xlfn.STDEV.P(O4:X4)</f>
+        <v>0.13152101648701564</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1191,6 +1315,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N5" s="3">
         <v>2</v>
       </c>
@@ -1225,11 +1353,15 @@
         <v>0.96</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78733333333333322</v>
       </c>
+      <c r="Z5">
+        <f t="shared" si="3"/>
+        <v>0.13291434167245605</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1267,6 +1399,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N6" s="3">
         <v>3</v>
       </c>
@@ -1301,11 +1437,15 @@
         <v>0.94666666666666666</v>
       </c>
       <c r="Y6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.85066666666666679</v>
       </c>
+      <c r="Z6">
+        <f t="shared" si="3"/>
+        <v>0.1273734666247241</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1343,6 +1483,10 @@
         <f>AVERAGE(B7:K7)</f>
         <v>3.3333333333333333E-2</v>
       </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
       <c r="N7" s="3">
         <v>4</v>
       </c>
@@ -1380,8 +1524,12 @@
         <f>AVERAGE(O7:X7)</f>
         <v>0.90066666666666662</v>
       </c>
+      <c r="Z7">
+        <f t="shared" si="3"/>
+        <v>0.17086576927843489</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1417,6 +1565,10 @@
       </c>
       <c r="L8" s="5">
         <f>AVERAGE(B8:K8)</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N8" s="3">
@@ -1456,8 +1608,12 @@
         <f>AVERAGE(O8:X8)</f>
         <v>1.0486666666666669</v>
       </c>
+      <c r="Z8">
+        <f t="shared" si="3"/>
+        <v>0.24259797562588498</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1466,43 +1622,43 @@
         <v>0</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" ref="C9:L9" si="2">AVERAGE(C3:C8)</f>
+        <f t="shared" ref="C9:L9" si="4">AVERAGE(C3:C8)</f>
         <v>0</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="N9" s="3" t="s">
@@ -1513,51 +1669,51 @@
         <v>0.7944444444444444</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" ref="P9:Y9" si="3">AVERAGE(P3:P8)</f>
+        <f t="shared" ref="P9:Y9" si="5">AVERAGE(P3:P8)</f>
         <v>0.91888888888888898</v>
       </c>
       <c r="Q9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.73222222222222222</v>
       </c>
       <c r="R9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.95000000000000007</v>
       </c>
       <c r="S9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.81333333333333335</v>
       </c>
       <c r="T9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.82888888888888879</v>
       </c>
       <c r="U9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2555555555555558</v>
       </c>
       <c r="V9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0777777777777777</v>
       </c>
       <c r="W9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.91777777777777769</v>
       </c>
       <c r="X9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0866666666666667</v>
       </c>
       <c r="Y9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.93755555555555548</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="N11" s="7"/>
     </row>
